--- a/data/outputs/OR_elsevier/9.xlsx
+++ b/data/outputs/OR_elsevier/9.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS32"/>
+  <dimension ref="A1:BU32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84938326281</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>261</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84939154433</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>412</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1361,6 +1383,12 @@
           <t>2-s2.0-84939535919</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>298</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1574,6 +1602,12 @@
           <t>2-s2.0-84941337589</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>538</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1791,6 +1825,12 @@
           <t>2-s2.0-84942781041</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>302</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2004,6 +2044,12 @@
           <t>2-s2.0-84943649629</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2213,6 +2259,12 @@
           <t>2-s2.0-84945192010</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>518</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2426,6 +2478,12 @@
           <t>2-s2.0-84945131975</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>416</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2643,6 +2701,12 @@
           <t>2-s2.0-84946548467</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>268</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2860,6 +2924,12 @@
           <t>2-s2.0-84946569061</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>298</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3073,6 +3143,12 @@
           <t>2-s2.0-84946562414</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>359</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3266,6 +3342,12 @@
           <t>2-s2.0-84946413278</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>638</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3473,6 +3555,12 @@
           <t>2-s2.0-84926626855</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>368</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3688,6 +3776,12 @@
           <t>2-s2.0-84926616214</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>343</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3903,6 +3997,12 @@
           <t>2-s2.0-84928941841</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>705</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4114,6 +4214,12 @@
           <t>2-s2.0-84929151614</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>328</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4337,6 +4443,12 @@
           <t>2-s2.0-84930684130</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>548</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4556,6 +4668,12 @@
           <t>2-s2.0-84934898425</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>352</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4771,6 +4889,12 @@
           <t>2-s2.0-84934975150</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>278</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4978,6 +5102,12 @@
           <t>2-s2.0-84935011534</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>197</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5187,6 +5317,12 @@
           <t>2-s2.0-84920681168</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>308</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5392,6 +5528,12 @@
           <t>2-s2.0-84922470416</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>298</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5597,6 +5739,12 @@
           <t>2-s2.0-84922470415</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>441</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5814,6 +5962,12 @@
           <t>2-s2.0-84922570804</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>253</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6027,6 +6181,12 @@
           <t>2-s2.0-84923384512</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>452</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6232,6 +6392,12 @@
           <t>2-s2.0-84924655652</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>390</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6453,6 +6619,12 @@
           <t>2-s2.0-84921721226</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>331</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6674,6 +6846,12 @@
           <t>2-s2.0-84912535384</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>517</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6887,6 +7065,12 @@
           <t>2-s2.0-84912141208</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>676</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7100,6 +7284,12 @@
           <t>2-s2.0-84919626382</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>506</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7321,6 +7511,12 @@
           <t>2-s2.0-84919665115</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>449</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
